--- a/formshare/tests/resources/forms/bad_language/bad_language.xlsx
+++ b/formshare/tests/resources/forms/bad_language/bad_language.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">Solo una prueba</t>
@@ -331,11 +334,11 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.69"/>
@@ -461,7 +464,7 @@
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.64"/>
@@ -554,13 +557,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.41"/>
@@ -574,13 +577,19 @@
       <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
